--- a/dtpu_configurations/only_integer16/30mhz/mxu_12x12/power.xlsx
+++ b/dtpu_configurations/only_integer16/30mhz/mxu_12x12/power.xlsx
@@ -175,34 +175,34 @@
         <v>11</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>0.014393034391105175</v>
+        <v>0.0157781932502985</v>
       </c>
       <c r="C2" t="n" s="4">
-        <v>0.00624613044783473</v>
+        <v>0.0073637580499053</v>
       </c>
       <c r="D2" t="n" s="4">
-        <v>0.004400468431413174</v>
+        <v>0.0047916327603161335</v>
       </c>
       <c r="E2" t="n" s="4">
-        <v>0.0056066568940877914</v>
+        <v>0.0043869344517588615</v>
       </c>
       <c r="F2" t="n" s="4">
-        <v>6.940495950402692E-5</v>
+        <v>1.434998121112585E-4</v>
       </c>
       <c r="G2" t="n" s="4">
-        <v>9.507664362899959E-4</v>
+        <v>9.819269180297852E-4</v>
       </c>
       <c r="H2" t="n" s="4">
         <v>5.878788651898503E-4</v>
       </c>
       <c r="I2" t="n" s="4">
-        <v>1.2575920820236206</v>
+        <v>1.2575732469558716</v>
       </c>
       <c r="J2" t="n" s="4">
-        <v>0.12728571891784668</v>
+        <v>0.12730003893375397</v>
       </c>
       <c r="K2" t="n" s="4">
-        <v>1.4171361923217773</v>
+        <v>1.418911099433899</v>
       </c>
     </row>
   </sheetData>
